--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Athira_DttProject\dtt_real_estate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E17A9-AC81-438B-8437-67FCC35F3FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FFFE1-B161-49DD-A6FF-E1758A35EE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Landing page</t>
-  </si>
-  <si>
-    <t>Created a landing page with Splash screen on it. I have removed the background of the icon given using Inkscape tool to match the design flow. I have placed that on a container and added the given red colour to the background.I have given the duration of the screen to 6 seconds. From there it will take to Home page.</t>
   </si>
   <si>
     <t>Home page</t>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>At first for integrating the API into the app app I  have used  the http package. On the  lib folder I have created a dart file(ApiProvider) under provider folder.On that file I have integrated the given api using the access key. Now the House class holds all the data from the API.Then I have created the HomePage  where i displayed all the houses in list view (ascending order according to price)  and put a search bar to implement search. I had to display some icons in svg format for that I have used the flutter svg package.The Flutter SVG package allows Flutter applications to render and manipulate SVG (Scalable Vector Graphics) images.I have also used the permission handler package to allow the user to determine whether they can share the location or not. if they denied the accessto location then i gave some default latitude and longitude of Amsterdam just to show the distance in the page. Another package I have used is the Geolocator package. This package is used for accessing the device's location services, allowing Flutter applications to retrieve current location data, track changes in location, and calculate distances between geographical points. Initially I have created a list(houses) which holds all details from API and used search controller to implement the search. I have used requestLocationPermission and  getCurrentLocation function to get permission and location of user and with that data and also the house data, i have displayed the required details in cards in list view format , which when clicked will take you to each house detail page. The one thing that took most of my time was accessing the location details as there were some issue with the emulators location. I was not able to change the location ,so it took some time mainly beacause I havent done that feature on my previous projects.For implementing the search operation correctly I have  written a searchcontroller variable which holds the search data by user  and then I will compare it with house list and store the matching details on a list( AllSearchItems ) and display them on the search page. if the searched data is not available then I will display 'Not available ' screen on search page itself. On the android manifest file  I have added uses permission for location. I have also created a seperate class for bottom navigation bar as it has to be used in multiple pages.</t>
+  </si>
+  <si>
+    <t>Earlier I have hardcoded the splash screen but after feedback I used the package flutter_native_splash to create the splashscreen.Also I added a flutter_native_splash configuration section to pubspec.yaml for color image etc.</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1880,14 +1880,14 @@
         <v>45603</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="195.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
@@ -1896,14 +1896,14 @@
         <v>45604</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -1912,14 +1912,14 @@
         <v>45605</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
@@ -1928,14 +1928,14 @@
         <v>45605</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -1944,14 +1944,14 @@
         <v>45607</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11">
         <v>3</v>
@@ -1960,10 +1960,10 @@
         <v>45607</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10"/>
     </row>
